--- a/outputs/CAROLINA4.xlsx
+++ b/outputs/CAROLINA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The subgoal "What sessions I should go to tomorrow" is a necessary step for Abi to plan her attendance at the conference effectively. Abi is motivated to accomplish her tasks and needs to gather comprehensive information to decide which sessions to attend. This planning is integral to her overall use case of deciding which sessions to go to, making it a relevant subgoal.</t>
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. Additionally, her comprehensive information processing style means she would consider gathering information about the sessions as a necessary step toward achieving her overall goal of attending the most relevant and interesting sessions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and located in a prominent position on the webpage. Abi is motivated to find information about the sessions, and clicking on a program menu is a logical and straightforward step in her information-gathering process. This action aligns with her need to comprehensively gather information to plan her attendance effectively.</t>
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, Abi will likely recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While the options are contextually relevant, there are many choices, which may overwhelm Abi. Given her low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she might not be sure which option to choose next. This uncertainty could hinder her progress toward finding the specific sessions she wants to attend.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, Abi might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing her to feel unsure if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,52 +453,52 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and a logical choice for Abi to find the sessions. Given her motivation to plan her attendance and her comprehensive information processing style, Abi will likely understand that clicking on "Complete Program" will provide her with the detailed schedule she needs to decide which sessions to attend.</t>
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, Abi will likely recognize that clicking on the "Complete Program" link is a logical step to find the detailed session information she needs.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Complete Program" link, Abi is taken to a page that provides a detailed schedule of sessions, including times, titles, and speakers. This page aligns with her goal of finding out which sessions to attend and provides comprehensive information, which suits her information processing style. Abi will know she is making progress toward her goal and has access to the information she needs to plan her schedule for the next day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Session Timeline" tab is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, Abi will likely recognize that clicking on the "Session Timeline" tab is a logical step to view the sessions in a timeline format, which can help her better understand the schedule and make informed decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Upon landing on the "ICSE 2019 Program" page, Abi will see a detailed timeline of sessions. However, the page contains a large amount of information, which could be overwhelming for her. The presence of multiple sessions, times, and different tracks may make it difficult for Abi to quickly determine which sessions to attend tomorrow. The extensive information might hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary details. Given her need for a comprehensive yet digestible format, this page might not entirely fulfill her requirements efficiently.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The session timeline page presents a very dense and visually overwhelming schedule. While it does provide a comprehensive view of the sessions, the sheer amount of information and the format may make it difficult for Abi to quickly ascertain if she is making progress toward her goal. Given her comprehensive information processing style, Abi might find it challenging to parse through this extensive timeline to find the specific sessions she is interested in. Additionally, her low computer self-efficacy might make her feel overwhelmed and unsure if she is on the right track, potentially causing her to doubt if she has all the information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The timeline is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, Abi might find it challenging to parse through this extensive timeline to find the "R for Software Engineering Research" tutorial. Additionally, her low computer self-efficacy might make her hesitant to click on items without being certain they are the correct ones, potentially causing her to feel unsure about what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and located next to the "Detailed Table" tab, making it an apparent next step for Abi to find a more streamlined view of the sessions. Given her motivation to plan her attendance and her comprehensive information processing style, Abi will likely recognize that clicking on the "Session Timeline" tab could provide a different, potentially more manageable format of the schedule, helping her progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Session Timeline" tab, Abi is presented with a very dense and visually complex schedule. The timeline is packed with sessions, colors, and text, which can be overwhelming and difficult to parse quickly. Abi prefers a comprehensive information processing style, but this extensive and detailed layout may be too much for her to process efficiently. Additionally, given her low confidence with unfamiliar computing tasks, she might struggle to navigate and extract the specific information she needs about the sessions for tomorrow. This could hinder her from feeling that she is making clear progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense and visually complex, and it may not be immediately clear to Abi that she needs to click on a specific tutorial, such as "R for Software Engineering Research," to get more information. Given her low confidence in unfamiliar computing tasks and preference for process-oriented learning, Abi might be hesitant or unsure about clicking on specific items within this complex interface without explicit instructions or indications on the page. This could hinder her from knowing what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi lands on a page that provides detailed information about the tutorial, including the course description, prerequisites, and the instructor's details. The comprehensive nature of the information aligns well with her need for thorough information processing. Additionally, the clear and structured presentation of the tutorial details will help her confirm that she is making progress toward her goal of deciding which sessions to attend tomorrow. This detailed information will likely provide Abi with confidence that she has made the right choice and is advancing in her planning.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her goal of finding out which sessions to attend and provides comprehensive information, which suits her information processing style. Abi will know she is making progress toward her goal and has access to the information she needs to decide whether to attend this tutorial.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA4.xlsx
+++ b/outputs/CAROLINA4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
+Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending the conference effectively. The page provides a comprehensive list of tracks and sessions, which supports her information processing style of gathering detailed information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or session information she needs. This aligns with her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing confusion and hindering her progress.</t>
+Why: While Abi will know she is making progress by clicking the "Program" menu item, the dropdown menu presents multiple options without clear guidance on which one to choose for the specific information she needs. This could be overwhelming and confusing for Abi, who prefers comprehensive information and may struggle with unfamiliar computing tasks. The lack of explicit direction on which submenu item to select makes it difficult for her to confidently proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a logical step to access the detailed session information she needs.</t>
+Why: Abi is motivated to find out the sessions for the next day, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would logically look for a complete program to gather all the necessary details for planning her day.</t>
         </is>
       </c>
     </row>
@@ -462,43 +462,43 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of the sessions, including times, titles, and locations. This comprehensive view aligns with her information processing style, allowing her to gather all the necessary information to plan her schedule. The clear and organized presentation of the session details will help her feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
+Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed schedule of sessions, which directly aligns with her goal of planning which sessions to attend. The page is organized in a way that allows her to see the sessions for each day, fulfilling her need for comprehensive information. This will help her feel confident that she is making progress toward her goal and has the necessary information to plan her day effectively.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Session Timeline" tab is not explicitly explained on the page, and Abi may not be confident in understanding what it will show or how it will help her. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without clear information about what to expect. This uncertainty could prevent her from knowing what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will see a detailed timeline of sessions, the sheer volume of information presented in a highly visual and dense format may be overwhelming. Abi prefers comprehensive information but in a more digestible format. The timeline view might be difficult for her to process quickly and efficiently, leading to confusion rather than clarity. Additionally, her low computer self-efficacy might make her doubt whether she is interpreting the information correctly, hindering her confidence in making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline view is dense and visually complex, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given her low computer self-efficacy, she may not feel certain about what to do next without clear, step-by-step instructions. Additionally, her preference for process-oriented learning means she would benefit from more explicit guidance on how to navigate and select specific sessions from the timeline.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and is a logical next step for Abi to view the sessions in a timeline format, which can help her plan her day more effectively. Given her motivation to organize her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" will provide her with a different, potentially more useful view of the session information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The session timeline page presents a very dense and visually overwhelming amount of information. While it does provide a comprehensive view of the sessions, the sheer volume and complexity of the data may make it difficult for Abi to quickly and easily find the specific information she needs. Given her comprehensive information processing style, she might feel overwhelmed by the amount of information and unsure if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a complex interface, potentially causing confusion and hindering her progress.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The session timeline page is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might feel uncertain about where to click to find the detailed information she needs. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a complex interface without clear guidance, potentially causing confusion and hindering her progress.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This comprehensive view aligns with her information processing style, allowing her to gather all the necessary information to decide if this session is relevant to her interests. The clear and organized presentation of the tutorial details will help her feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to find out about the sessions and her comprehensive information processing style, as the page offers all the necessary details she needs to make an informed decision about attending the tutorial. She will know she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA4.xlsx
+++ b/outputs/CAROLINA4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending the conference effectively. The page provides a comprehensive list of tracks and sessions, which supports her information processing style of gathering detailed information before making decisions.</t>
+Facets: 1. Motivations
+Why: Abi is at the conference and planning which sessions to attend the next day. This aligns with her motivation to make the most of her time at the event by attending relevant sessions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or session information she needs. This aligns with her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
+Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to gather necessary details.</t>
         </is>
       </c>
     </row>
@@ -444,52 +444,52 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress by clicking the "Program" menu item, the dropdown menu presents multiple options without clear guidance on which one to choose for the specific information she needs. This could be overwhelming and confusing for Abi, who prefers comprehensive information and may struggle with unfamiliar computing tasks. The lack of explicit direction on which submenu item to select makes it difficult for her to confidently proceed.</t>
+Why: The page contains a lot of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do next without explicit instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out the sessions for the next day, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would logically look for a complete program to gather all the necessary details for planning her day.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: The page provides a detailed program with clear session information, which aligns with Abi's motivation to plan her schedule. The structured format supports her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed schedule of sessions, which directly aligns with her goal of planning which sessions to attend. The page is organized in a way that allows her to see the sessions for each day, fulfilling her need for comprehensive information. This will help her feel confident that she is making progress toward her goal and has the necessary information to plan her day effectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The "Session Timeline" option is clearly labeled and directly related to viewing the schedule in a timeline format, which can help Abi plan her day. This aligns with her motivation to organize her schedule and her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The timeline view presents a lot of information in a compact format, which might be overwhelming for Abi. Her comprehensive information processing style may make it difficult to quickly extract the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Session Timeline" tab is not explicitly explained on the page, and Abi may not be confident in understanding what it will show or how it will help her. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without clear information about what to expect. This uncertainty could prevent her from knowing what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will see a detailed timeline of sessions, the sheer volume of information presented in a highly visual and dense format may be overwhelming. Abi prefers comprehensive information but in a more digestible format. The timeline view might be difficult for her to process quickly and efficiently, leading to confusion rather than clarity. Additionally, her low computer self-efficacy might make her doubt whether she is interpreting the information correctly, hindering her confidence in making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline view is dense and visually complex, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given her low computer self-efficacy, she may not feel certain about what to do next without clear, step-by-step instructions. Additionally, her preference for process-oriented learning means she would benefit from more explicit guidance on how to navigate and select specific sessions from the timeline.</t>
+Why: The timeline is dense with information, and Abi may not easily identify the specific tutorial link without clear guidance. Her low computer self-efficacy and preference for structured learning mean she might not feel confident in knowing what to do next without explicit instructions.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to find out about the sessions and her comprehensive information processing style, as the page offers all the necessary details she needs to make an informed decision about attending the tutorial. She will know she is making progress toward her goal and has the information she needs.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and supports her information processing style, helping her feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA4.xlsx
+++ b/outputs/CAROLINA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning which sessions to attend the next day. This aligns with her motivation to make the most of her time at the event by attending relevant sessions.</t>
+Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
         </is>
       </c>
     </row>
@@ -435,70 +435,70 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to gather necessary details.</t>
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of planning which sessions to attend. This aligns with her motivation to find relevant information and her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are well-organized, aligning with her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and directly related to Abi's goal of finding session information. It logically follows her previous action and aligns with her motivation to gather comprehensive information about the sessions available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is on the right track.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is viewing the correct information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do next without explicit instructions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: The page is dense with information, and there is no clear indication or instruction about clicking on a "session timeline." Abi's low computer self-efficacy and preference for process-oriented learning mean she might not feel confident about what to do without explicit guidance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a detailed program with clear session information, which aligns with Abi's motivation to plan her schedule. The structured format supports her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by presenting the information in an organized manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually dense, and without explicit instructions or clear indicators, Abi might not feel confident about clicking on a specific tutorial. Her low computer self-efficacy and preference for guided learning mean she may hesitate without clear guidance on what clicking will achieve.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" option is clearly labeled and directly related to viewing the schedule in a timeline format, which can help Abi plan her day. This aligns with her motivation to organize her schedule and her comprehensive information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline view presents a lot of information in a compact format, which might be overwhelming for Abi. Her comprehensive information processing style may make it difficult to quickly extract the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and Abi may not easily identify the specific tutorial link without clear guidance. Her low computer self-efficacy and preference for structured learning mean she might not feel confident in knowing what to do next without explicit instructions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and supports her information processing style, helping her feel confident that she is making progress toward her goal.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and helps her confirm she is making progress toward planning her sessions.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA4.xlsx
+++ b/outputs/CAROLINA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of planning which sessions to attend. This aligns with her motivation to find relevant information and her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is a logical place to look for session information. Her comprehensive information processing style would lead her to explore this option to gather the necessary details.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are well-organized, aligning with her comprehensive information processing style.</t>
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the sessions, confirming she is making progress toward her goal of planning which sessions to attend. The options align with her comprehensive information processing style, allowing her to gather detailed information.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option is clearly labeled and directly related to Abi's goal of finding session information. It logically follows her previous action and aligns with her motivation to gather comprehensive information about the sessions available.</t>
+Why: Abi is motivated to find detailed session information, and the "Complete Program" option is clearly labeled, indicating it will provide comprehensive details about the sessions. This aligns with her need for thorough information processing.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is viewing the correct information.</t>
+Why: Although Abi lands on a page with detailed session information, the sheer volume of data can be overwhelming. Her comprehensive information processing style might struggle to sift through it all efficiently, and her low computer self-efficacy could make it difficult to navigate and extract the specific details she needs for planning.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and there is no clear indication or instruction about clicking on a "session timeline." Abi's low computer self-efficacy and preference for process-oriented learning mean she might not feel confident about what to do without explicit guidance.</t>
+Why: The page is dense with information, and without clear instructions or labels indicating a "session timeline," Abi might not know where to click. Her low computer self-efficacy and preference for process-oriented learning mean she may struggle to identify the correct action without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by presenting the information in an organized manner.</t>
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available each day. This format aligns with her motivation to plan effectively and supports her comprehensive information processing style by organizing the information in an accessible way.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is visually dense, and without explicit instructions or clear indicators, Abi might not feel confident about clicking on a specific tutorial. Her low computer self-efficacy and preference for guided learning mean she may hesitate without clear guidance on what clicking will achieve.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The timeline clearly labels sessions, including the tutorial "R for Software Engineering Research." Abi is motivated to find sessions of interest, and the visual layout helps her identify and select specific sessions, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and helps her confirm she is making progress toward planning her sessions.</t>
+Why: After clicking on the tutorial, Abi lands on a page with detailed information about "R for Software Engineering Research," including the course description and prerequisites. This confirms she is making progress toward her goal and provides the comprehensive details she needs, aligning with her motivations and information processing style.</t>
         </is>
       </c>
     </row>
